--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Dec_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Dec_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -34,17 +34,35 @@
   <si>
     <t>No Of Effort In Hrs</t>
   </si>
+  <si>
+    <t>Interview ques./Revision</t>
+  </si>
+  <si>
+    <t>Going through interview questions and revised some spring annotation parts.</t>
+  </si>
+  <si>
+    <t>10 hrs</t>
+  </si>
+  <si>
+    <t>Preparing for interview question and doing practice.</t>
+  </si>
+  <si>
+    <t>Interview ques/Tasks/Rev.</t>
+  </si>
+  <si>
+    <t>Prepaing for interview questions as well as working on the tasks and then revised some spring content.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -78,8 +96,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,48 +136,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,7 +159,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -165,9 +168,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,13 +183,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +205,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,7 +260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +278,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,13 +314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,25 +350,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,61 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +417,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,6 +616,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,15 +640,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,17 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -672,15 +679,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,106 +697,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,40 +816,49 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -898,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,14 +1239,14 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="12.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="23.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="81.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="85.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="16.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1266,138 +1284,196 @@
       <c r="C4" s="20">
         <v>44531</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>44532</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44533</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>4</v>
+      </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
       <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>5</v>
+      </c>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="19"/>
+      <c r="B9" s="19">
+        <v>6</v>
+      </c>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="19"/>
+      <c r="B10" s="19">
+        <v>7</v>
+      </c>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="19"/>
+      <c r="B11" s="19">
+        <v>8</v>
+      </c>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="19"/>
+      <c r="B12" s="19">
+        <v>9</v>
+      </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="19"/>
+      <c r="B13" s="19">
+        <v>10</v>
+      </c>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="19"/>
+      <c r="B14" s="19">
+        <v>11</v>
+      </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>12</v>
+      </c>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="23"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>13</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>14</v>
+      </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>15</v>
+      </c>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="19"/>
+      <c r="B19" s="19">
+        <v>16</v>
+      </c>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="19"/>
+      <c r="B20" s="19">
+        <v>17</v>
+      </c>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
       <c r="E20" s="8"/>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>18</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
       <c r="E21" s="8"/>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="19"/>
+      <c r="B22" s="19">
+        <v>19</v>
+      </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
       <c r="E22" s="8"/>
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>20</v>
+      </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="8"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Dec_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Dec_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -52,15 +52,48 @@
   <si>
     <t>Prepaing for interview questions as well as working on the tasks and then revised some spring content.</t>
   </si>
+  <si>
+    <t>Java training/use case/IQ</t>
+  </si>
+  <si>
+    <t>Attended java meeting and started working on given use case as well as preparing for interview quest.</t>
+  </si>
+  <si>
+    <t>9 hrs</t>
+  </si>
+  <si>
+    <t>Working on mini use case given by dhivya as well as preparing for interview questions</t>
+  </si>
+  <si>
+    <t>Working on use case and going through some interview questions</t>
+  </si>
+  <si>
+    <t>8 hrs</t>
+  </si>
+  <si>
+    <t>Almost completed the mini use case and gong for use case</t>
+  </si>
+  <si>
+    <t>Preparing for inter. Quest.</t>
+  </si>
+  <si>
+    <t>Preparing for interview question and doing practice as well as completed the mini use case.</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Revised all the contents and going through interview questions.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
@@ -96,24 +129,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +157,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,7 +293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +305,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,25 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,25 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,37 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,15 +649,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +664,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,46 +756,46 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,7 +804,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -780,22 +813,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -804,64 +837,64 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,7 +1272,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1324,78 +1357,142 @@
       <c r="E6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="19">
         <v>4</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="20">
+        <v>44536</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="19">
         <v>5</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="C8" s="20">
+        <v>44537</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="19">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="C9" s="20">
+        <v>44538</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="19">
         <v>7</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="C10" s="20">
+        <v>44539</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="19">
         <v>8</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="C11" s="20">
+        <v>44540</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="19">
         <v>9</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="C12" s="20">
+        <v>44543</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="19">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="20">
+        <v>44544</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="19">
         <v>11</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="20">
+        <v>44545</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="23"/>
     </row>
     <row r="15" spans="2:6">

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Dec_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Dec_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -85,16 +85,28 @@
   <si>
     <t>Revised all the contents and going through interview questions.</t>
   </si>
+  <si>
+    <t>Visited office/Recp. Readin.</t>
+  </si>
+  <si>
+    <t>Visited office and going through connection pooling over singleton database.</t>
+  </si>
+  <si>
+    <t>Interview Prep.</t>
+  </si>
+  <si>
+    <t>Preparing for infosys interview for Flowable framework as well as going through some rec. videos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
@@ -129,16 +141,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,14 +192,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,13 +299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,37 +317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,13 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +395,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,55 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,148 +765,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1272,7 +1284,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1493,31 +1505,51 @@
       <c r="E14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="19">
         <v>12</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
+      <c r="C15" s="20">
+        <v>44546</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="19">
         <v>13</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="C16" s="20">
+        <v>44547</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="19">
         <v>14</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="20">
+        <v>44550</v>
+      </c>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Dec_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Dec_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -97,16 +97,22 @@
   <si>
     <t>Preparing for infosys interview for Flowable framework as well as going through some rec. videos</t>
   </si>
+  <si>
+    <t>Preparing for interview and going through all the concepts of flowable and java.</t>
+  </si>
+  <si>
+    <t>12 hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
@@ -141,11 +147,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,16 +170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,9 +201,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +241,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -235,21 +263,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -259,13 +272,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,7 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,13 +323,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,25 +365,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,73 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +667,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +734,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -724,30 +754,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,145 +774,145 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,7 +1290,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1550,15 +1556,23 @@
       <c r="C17" s="20">
         <v>44550</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="D17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="19">
         <v>15</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="20">
+        <v>44551</v>
+      </c>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Dec_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Dec_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -103,17 +103,26 @@
   <si>
     <t>12 hrs</t>
   </si>
+  <si>
+    <t>Preparing for ongoing interview for flowable as well as java.</t>
+  </si>
+  <si>
+    <t>13 hrs</t>
+  </si>
+  <si>
+    <t>Preparing for interview and just waiting for the interview call.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -141,22 +150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,9 +164,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,8 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -237,13 +239,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,9 +264,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +332,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,85 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,19 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +446,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,19 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,21 +676,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,11 +719,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,8 +737,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,6 +760,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -771,148 +780,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -957,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -967,7 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,7 +1299,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1573,33 +1582,55 @@
       <c r="C18" s="20">
         <v>44551</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
+      <c r="D18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="19">
         <v>16</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="20">
+        <v>44552</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="19">
         <v>17</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="20">
+        <v>44553</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="19">
         <v>18</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="20">
+        <v>44554</v>
+      </c>
       <c r="D21" s="21"/>
       <c r="E21" s="8"/>
       <c r="F21" s="23"/>
